--- a/affine_transformation/regression.xlsx
+++ b/affine_transformation/regression.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PrimaLab\Dropbox\Document\教務\講義\2020\一関高専\source\Affine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yutachan/Documents/class/4/画像処理/課題/affine_transformation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6F7AE5-08CD-4DB9-9BF4-6BB88D480935}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058994F0-7125-9043-B913-BB0D20203E21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38940" yWindow="1470" windowWidth="26040" windowHeight="18810" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Affine" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1329,28 +1329,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>591</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1362,28 +1362,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>638</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>573</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>522</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1413,28 +1413,28 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.4028420935350852</c:v>
+                  <c:v>540.05756232235649</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.219983543287682</c:v>
+                  <c:v>106.42649530331089</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102.47155820842792</c:v>
+                  <c:v>164.69212122560228</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101.99461633852506</c:v>
+                  <c:v>596.09109990096772</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.804191236871134</c:v>
+                  <c:v>530.94092529336922</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47.835449863797564</c:v>
+                  <c:v>360.23529554657807</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.659700110198056</c:v>
+                  <c:v>243.70758325696971</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.3883413946423353</c:v>
+                  <c:v>186.84891715084848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1446,28 +1446,28 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>99.459263664923839</c:v>
+                  <c:v>108.85010142836418</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>103.94294345211729</c:v>
+                  <c:v>163.56558369138543</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102.63971085620538</c:v>
+                  <c:v>633.90748672362281</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.93010761667373</c:v>
+                  <c:v>581.8250043180667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4632794522770496</c:v>
+                  <c:v>520.3189094225155</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7859033319544189</c:v>
+                  <c:v>300.69849423329816</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7489516405373031</c:v>
+                  <c:v>365.85172875225919</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44.029839985311</c:v>
+                  <c:v>213.98269143048819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1509,28 +1509,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>688</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85</c:v>
+                  <c:v>878</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83</c:v>
+                  <c:v>761</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48</c:v>
+                  <c:v>442</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1542,28 +1542,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>83</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85</c:v>
+                  <c:v>987</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>760</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>682</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>383</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>527</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2026,31 +2026,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" style="2"/>
+    <col min="5" max="5" width="9.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="1" customWidth="1"/>
-    <col min="13" max="16" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="23" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.625" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="12.75" style="1"/>
+    <col min="13" max="16" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="23" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.6640625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:24" ht="25">
       <c r="B2" s="61" t="s">
         <v>33</v>
       </c>
@@ -2077,8 +2077,8 @@
       <c r="W2" s="62"/>
       <c r="X2" s="62"/>
     </row>
-    <row r="3" spans="2:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:24" ht="19" thickBot="1"/>
+    <row r="4" spans="2:24" ht="19" thickBot="1">
       <c r="B4" s="53" t="s">
         <v>21</v>
       </c>
@@ -2116,7 +2116,7 @@
       <c r="V4" s="59"/>
       <c r="W4" s="60"/>
     </row>
-    <row r="5" spans="2:24" s="2" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:24" s="2" customFormat="1" ht="23" thickBot="1">
       <c r="B5" s="54"/>
       <c r="C5" s="44" t="s">
         <v>10</v>
@@ -2178,665 +2178,665 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:24">
       <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="5">
-        <v>17</v>
+        <v>688</v>
       </c>
       <c r="D6" s="6">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E6" s="6">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="F6" s="7">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G13" si="0">$K6*($J$23*C6+$J$24*D6+$J$25)</f>
-        <v>3.4028420935350852</v>
+        <v>540.05756232235649</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" ref="H6:H13" si="1">$K6*($J$27*C6+$J$28*D6+$J$29)</f>
-        <v>99.459263664923839</v>
+        <v>108.85010142836418</v>
       </c>
       <c r="I6" s="9">
         <f>$K6*ABS(G6-E6)</f>
-        <v>3.4028420935350852</v>
+        <v>5.0575623223564889</v>
       </c>
       <c r="J6" s="9">
         <f>$K6*ABS(H6-F6)</f>
-        <v>0.54073633507616137</v>
+        <v>4.1498985716358163</v>
       </c>
       <c r="K6" s="10">
         <v>1</v>
       </c>
       <c r="M6" s="11">
         <f>$K6*(C6)</f>
-        <v>17</v>
+        <v>688</v>
       </c>
       <c r="N6" s="12">
         <f>$K6*D6</f>
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="O6" s="12">
         <f t="shared" ref="O6:P6" si="2">$K6*E6</f>
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="P6" s="12">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="Q6" s="12">
         <f>K6*C6*C6</f>
-        <v>289</v>
+        <v>473344</v>
       </c>
       <c r="R6" s="12">
         <f>K6*D6*D6</f>
-        <v>6889</v>
+        <v>169</v>
       </c>
       <c r="S6" s="12">
         <f>K6*C6*D6</f>
-        <v>1411</v>
+        <v>8944</v>
       </c>
       <c r="T6" s="12">
         <f>K6*C6*E6</f>
-        <v>0</v>
+        <v>368080</v>
       </c>
       <c r="U6" s="12">
         <f>K6*D6*E6</f>
-        <v>0</v>
+        <v>6955</v>
       </c>
       <c r="V6" s="12">
         <f>K6*C6*F6</f>
-        <v>1700</v>
+        <v>77744</v>
       </c>
       <c r="W6" s="13">
         <f>K6*D6*F6</f>
-        <v>8300</v>
+        <v>1469</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:24">
       <c r="B7" s="14">
         <v>2</v>
       </c>
       <c r="C7" s="15">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D7" s="12">
-        <v>86</v>
+        <v>245</v>
       </c>
       <c r="E7" s="12">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="F7" s="16">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="G7" s="18">
         <f t="shared" si="0"/>
-        <v>44.219983543287682</v>
+        <v>106.42649530331089</v>
       </c>
       <c r="H7" s="17">
         <f t="shared" si="1"/>
-        <v>103.94294345211729</v>
+        <v>163.56558369138543</v>
       </c>
       <c r="I7" s="18">
         <f t="shared" ref="I7:I13" si="3">$K7*ABS(G7-E7)</f>
-        <v>5.7800164567123176</v>
+        <v>10.426495303310887</v>
       </c>
       <c r="J7" s="18">
         <f t="shared" ref="J7:J13" si="4">$K7*ABS(H7-F7)</f>
-        <v>3.9429434521172908</v>
+        <v>10.565583691385427</v>
       </c>
       <c r="K7" s="19">
         <v>1</v>
       </c>
       <c r="M7" s="11">
         <f t="shared" ref="M7:M13" si="5">$K7*(C7)</f>
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="N7" s="12">
         <f t="shared" ref="N7:N13" si="6">$K7*D7</f>
-        <v>86</v>
+        <v>245</v>
       </c>
       <c r="O7" s="12">
         <f t="shared" ref="O7:O13" si="7">$K7*E7</f>
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="P7" s="12">
         <f t="shared" ref="P7:P13" si="8">$K7*F7</f>
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="Q7" s="12">
         <f t="shared" ref="Q7:Q13" si="9">K7*C7*C7</f>
-        <v>2025</v>
+        <v>64</v>
       </c>
       <c r="R7" s="12">
         <f t="shared" ref="R7:R13" si="10">K7*D7*D7</f>
-        <v>7396</v>
+        <v>60025</v>
       </c>
       <c r="S7" s="12">
         <f t="shared" ref="S7:S13" si="11">K7*C7*D7</f>
-        <v>3870</v>
+        <v>1960</v>
       </c>
       <c r="T7" s="12">
         <f t="shared" ref="T7:T13" si="12">K7*C7*E7</f>
-        <v>2250</v>
+        <v>768</v>
       </c>
       <c r="U7" s="12">
         <f t="shared" ref="U7:U13" si="13">K7*D7*E7</f>
-        <v>4300</v>
+        <v>23520</v>
       </c>
       <c r="V7" s="12">
         <f t="shared" ref="V7:V13" si="14">K7*C7*F7</f>
-        <v>4500</v>
+        <v>1224</v>
       </c>
       <c r="W7" s="13">
         <f t="shared" ref="W7:W13" si="15">K7*D7*F7</f>
-        <v>8600</v>
+        <v>37485</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:24">
       <c r="B8" s="14">
         <v>3</v>
       </c>
       <c r="C8" s="15">
-        <v>85</v>
+        <v>201</v>
       </c>
       <c r="D8" s="12">
-        <v>85</v>
+        <v>987</v>
       </c>
       <c r="E8" s="12">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="F8" s="16">
-        <v>100</v>
+        <v>638</v>
       </c>
       <c r="G8" s="18">
         <f t="shared" si="0"/>
-        <v>102.47155820842792</v>
+        <v>164.69212122560228</v>
       </c>
       <c r="H8" s="17">
         <f t="shared" si="1"/>
-        <v>102.63971085620538</v>
+        <v>633.90748672362281</v>
       </c>
       <c r="I8" s="18">
         <f t="shared" si="3"/>
-        <v>2.471558208427922</v>
+        <v>4.6921212256022784</v>
       </c>
       <c r="J8" s="18">
         <f t="shared" si="4"/>
-        <v>2.639710856205383</v>
+        <v>4.0925132763771899</v>
       </c>
       <c r="K8" s="19">
         <v>1</v>
       </c>
       <c r="M8" s="11">
         <f t="shared" si="5"/>
-        <v>85</v>
+        <v>201</v>
       </c>
       <c r="N8" s="12">
         <f t="shared" si="6"/>
-        <v>85</v>
+        <v>987</v>
       </c>
       <c r="O8" s="12">
         <f t="shared" si="7"/>
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="P8" s="12">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>638</v>
       </c>
       <c r="Q8" s="12">
         <f t="shared" si="9"/>
-        <v>7225</v>
+        <v>40401</v>
       </c>
       <c r="R8" s="12">
         <f t="shared" si="10"/>
-        <v>7225</v>
+        <v>974169</v>
       </c>
       <c r="S8" s="12">
         <f t="shared" si="11"/>
-        <v>7225</v>
+        <v>198387</v>
       </c>
       <c r="T8" s="12">
         <f t="shared" si="12"/>
-        <v>8500</v>
+        <v>32160</v>
       </c>
       <c r="U8" s="12">
         <f t="shared" si="13"/>
-        <v>8500</v>
+        <v>157920</v>
       </c>
       <c r="V8" s="12">
         <f t="shared" si="14"/>
-        <v>8500</v>
+        <v>128238</v>
       </c>
       <c r="W8" s="13">
         <f t="shared" si="15"/>
-        <v>8500</v>
+        <v>629706</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:24">
       <c r="B9" s="14">
         <v>4</v>
       </c>
       <c r="C9" s="15">
-        <v>85</v>
+        <v>878</v>
       </c>
       <c r="D9" s="12">
-        <v>42</v>
+        <v>760</v>
       </c>
       <c r="E9" s="12">
-        <v>100</v>
+        <v>591</v>
       </c>
       <c r="F9" s="16">
-        <v>50</v>
+        <v>573</v>
       </c>
       <c r="G9" s="18">
         <f t="shared" si="0"/>
-        <v>101.99461633852506</v>
+        <v>596.09109990096772</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="1"/>
-        <v>39.93010761667373</v>
+        <v>581.8250043180667</v>
       </c>
       <c r="I9" s="18">
         <f t="shared" si="3"/>
-        <v>1.9946163385250628</v>
+        <v>5.0910999009677198</v>
       </c>
       <c r="J9" s="18">
         <f t="shared" si="4"/>
-        <v>10.06989238332627</v>
+        <v>8.8250043180667035</v>
       </c>
       <c r="K9" s="19">
         <v>1</v>
       </c>
       <c r="M9" s="11">
         <f t="shared" si="5"/>
-        <v>85</v>
+        <v>878</v>
       </c>
       <c r="N9" s="12">
         <f t="shared" si="6"/>
-        <v>42</v>
+        <v>760</v>
       </c>
       <c r="O9" s="12">
         <f t="shared" si="7"/>
-        <v>100</v>
+        <v>591</v>
       </c>
       <c r="P9" s="12">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>573</v>
       </c>
       <c r="Q9" s="12">
         <f t="shared" si="9"/>
-        <v>7225</v>
+        <v>770884</v>
       </c>
       <c r="R9" s="12">
         <f t="shared" si="10"/>
-        <v>1764</v>
+        <v>577600</v>
       </c>
       <c r="S9" s="12">
         <f t="shared" si="11"/>
-        <v>3570</v>
+        <v>667280</v>
       </c>
       <c r="T9" s="12">
         <f t="shared" si="12"/>
-        <v>8500</v>
+        <v>518898</v>
       </c>
       <c r="U9" s="12">
         <f t="shared" si="13"/>
-        <v>4200</v>
+        <v>449160</v>
       </c>
       <c r="V9" s="12">
         <f t="shared" si="14"/>
-        <v>4250</v>
+        <v>503094</v>
       </c>
       <c r="W9" s="13">
         <f t="shared" si="15"/>
-        <v>2100</v>
+        <v>435480</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:24">
       <c r="B10" s="14">
         <v>5</v>
       </c>
       <c r="C10" s="15">
-        <v>83</v>
+        <v>761</v>
       </c>
       <c r="D10" s="12">
-        <v>17</v>
+        <v>682</v>
       </c>
       <c r="E10" s="12">
-        <v>100</v>
+        <v>535</v>
       </c>
       <c r="F10" s="16">
-        <v>0</v>
+        <v>522</v>
       </c>
       <c r="G10" s="18">
         <f t="shared" si="0"/>
-        <v>98.804191236871134</v>
+        <v>530.94092529336922</v>
       </c>
       <c r="H10" s="17">
         <f t="shared" si="1"/>
-        <v>3.4632794522770496</v>
+        <v>520.3189094225155</v>
       </c>
       <c r="I10" s="18">
         <f t="shared" si="3"/>
-        <v>1.1958087631288663</v>
+        <v>4.0590747066307813</v>
       </c>
       <c r="J10" s="18">
         <f t="shared" si="4"/>
-        <v>3.4632794522770496</v>
+        <v>1.6810905774844969</v>
       </c>
       <c r="K10" s="19">
         <v>1</v>
       </c>
       <c r="M10" s="11">
         <f t="shared" si="5"/>
-        <v>83</v>
+        <v>761</v>
       </c>
       <c r="N10" s="12">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>682</v>
       </c>
       <c r="O10" s="12">
         <f t="shared" si="7"/>
-        <v>100</v>
+        <v>535</v>
       </c>
       <c r="P10" s="12">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>522</v>
       </c>
       <c r="Q10" s="12">
         <f t="shared" si="9"/>
-        <v>6889</v>
+        <v>579121</v>
       </c>
       <c r="R10" s="12">
         <f t="shared" si="10"/>
-        <v>289</v>
+        <v>465124</v>
       </c>
       <c r="S10" s="12">
         <f t="shared" si="11"/>
-        <v>1411</v>
+        <v>519002</v>
       </c>
       <c r="T10" s="12">
         <f t="shared" si="12"/>
-        <v>8300</v>
+        <v>407135</v>
       </c>
       <c r="U10" s="12">
         <f t="shared" si="13"/>
-        <v>1700</v>
+        <v>364870</v>
       </c>
       <c r="V10" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>397242</v>
       </c>
       <c r="W10" s="13">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>356004</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:24">
       <c r="B11" s="14">
         <v>6</v>
       </c>
       <c r="C11" s="15">
-        <v>48</v>
+        <v>442</v>
       </c>
       <c r="D11" s="12">
-        <v>18</v>
+        <v>383</v>
       </c>
       <c r="E11" s="12">
-        <v>50</v>
+        <v>367</v>
       </c>
       <c r="F11" s="16">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="G11" s="18">
         <f t="shared" si="0"/>
-        <v>47.835449863797564</v>
+        <v>360.23529554657807</v>
       </c>
       <c r="H11" s="17">
         <f t="shared" si="1"/>
-        <v>4.7859033319544189</v>
+        <v>300.69849423329816</v>
       </c>
       <c r="I11" s="18">
         <f t="shared" si="3"/>
-        <v>2.1645501362024362</v>
+        <v>6.7647044534219276</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" si="4"/>
-        <v>4.7859033319544189</v>
+        <v>3.3015057667018368</v>
       </c>
       <c r="K11" s="19">
         <v>1</v>
       </c>
       <c r="M11" s="11">
         <f t="shared" si="5"/>
-        <v>48</v>
+        <v>442</v>
       </c>
       <c r="N11" s="12">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>383</v>
       </c>
       <c r="O11" s="12">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>367</v>
       </c>
       <c r="P11" s="12">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="Q11" s="12">
         <f t="shared" si="9"/>
-        <v>2304</v>
+        <v>195364</v>
       </c>
       <c r="R11" s="12">
         <f t="shared" si="10"/>
-        <v>324</v>
+        <v>146689</v>
       </c>
       <c r="S11" s="12">
         <f t="shared" si="11"/>
-        <v>864</v>
+        <v>169286</v>
       </c>
       <c r="T11" s="12">
         <f t="shared" si="12"/>
-        <v>2400</v>
+        <v>162214</v>
       </c>
       <c r="U11" s="12">
         <f t="shared" si="13"/>
-        <v>900</v>
+        <v>140561</v>
       </c>
       <c r="V11" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>134368</v>
       </c>
       <c r="W11" s="13">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>116432</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:24">
       <c r="B12" s="14">
         <v>7</v>
       </c>
       <c r="C12" s="15">
-        <v>17</v>
+        <v>270</v>
       </c>
       <c r="D12" s="12">
-        <v>16</v>
+        <v>527</v>
       </c>
       <c r="E12" s="12">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="F12" s="16">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="G12" s="18">
         <f t="shared" si="0"/>
-        <v>2.659700110198056</v>
+        <v>243.70758325696971</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" si="1"/>
-        <v>1.7489516405373031</v>
+        <v>365.85172875225919</v>
       </c>
       <c r="I12" s="18">
         <f t="shared" si="3"/>
-        <v>2.659700110198056</v>
+        <v>6.2924167430302873</v>
       </c>
       <c r="J12" s="18">
         <f t="shared" si="4"/>
-        <v>1.7489516405373031</v>
+        <v>4.1482712477408086</v>
       </c>
       <c r="K12" s="19">
         <v>1</v>
       </c>
       <c r="M12" s="11">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>270</v>
       </c>
       <c r="N12" s="12">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>527</v>
       </c>
       <c r="O12" s="12">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="P12" s="12">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="Q12" s="12">
         <f t="shared" si="9"/>
-        <v>289</v>
+        <v>72900</v>
       </c>
       <c r="R12" s="12">
         <f t="shared" si="10"/>
-        <v>256</v>
+        <v>277729</v>
       </c>
       <c r="S12" s="12">
         <f t="shared" si="11"/>
-        <v>272</v>
+        <v>142290</v>
       </c>
       <c r="T12" s="12">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>67500</v>
       </c>
       <c r="U12" s="12">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>131750</v>
       </c>
       <c r="V12" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>99900</v>
       </c>
       <c r="W12" s="13">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>194990</v>
       </c>
     </row>
-    <row r="13" spans="2:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:24" ht="19" thickBot="1">
       <c r="B13" s="20">
         <v>8</v>
       </c>
       <c r="C13" s="21">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="D13" s="22">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="E13" s="22">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="F13" s="23">
-        <v>50</v>
+        <v>216</v>
       </c>
       <c r="G13" s="25">
         <f t="shared" si="0"/>
-        <v>-1.3883413946423353</v>
+        <v>186.84891715084848</v>
       </c>
       <c r="H13" s="24">
         <f t="shared" si="1"/>
-        <v>44.029839985311</v>
+        <v>213.98269143048819</v>
       </c>
       <c r="I13" s="25">
         <f t="shared" si="3"/>
-        <v>1.3883413946423353</v>
+        <v>8.1510828491515213</v>
       </c>
       <c r="J13" s="25">
         <f t="shared" si="4"/>
-        <v>5.9701600146890001</v>
+        <v>2.0173085695118118</v>
       </c>
       <c r="K13" s="26">
         <v>1</v>
       </c>
       <c r="M13" s="27">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="N13" s="22">
         <f t="shared" si="6"/>
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="O13" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="P13" s="22">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="22">
         <f t="shared" si="9"/>
-        <v>196</v>
+        <v>21609</v>
       </c>
       <c r="R13" s="22">
         <f t="shared" si="10"/>
-        <v>2025</v>
+        <v>90000</v>
       </c>
       <c r="S13" s="22">
         <f t="shared" si="11"/>
-        <v>630</v>
+        <v>44100</v>
       </c>
       <c r="T13" s="22">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>28665</v>
       </c>
       <c r="U13" s="22">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>58500</v>
       </c>
       <c r="V13" s="22">
         <f t="shared" si="14"/>
-        <v>700</v>
+        <v>31752</v>
       </c>
       <c r="W13" s="28">
         <f t="shared" si="15"/>
-        <v>2250</v>
+        <v>64800</v>
       </c>
     </row>
-    <row r="14" spans="2:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:24" ht="19" thickBot="1">
       <c r="B14" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="27">
         <f>SUM(C6:C13)</f>
-        <v>394</v>
+        <v>3395</v>
       </c>
       <c r="D14" s="22">
         <f>SUM(D6:D13)</f>
-        <v>392</v>
+        <v>3897</v>
       </c>
       <c r="E14" s="22">
         <f>SUM(E6:E13)</f>
-        <v>400</v>
+        <v>2729</v>
       </c>
       <c r="F14" s="28">
         <f>SUM(F6:F13)</f>
-        <v>400</v>
+        <v>2889</v>
       </c>
       <c r="K14" s="30"/>
       <c r="L14" s="31" t="s">
@@ -2844,50 +2844,50 @@
       </c>
       <c r="M14" s="27">
         <f t="shared" ref="M14:W14" si="16">SUM(M6:M13)</f>
-        <v>394</v>
+        <v>3395</v>
       </c>
       <c r="N14" s="22">
         <f t="shared" si="16"/>
-        <v>392</v>
+        <v>3897</v>
       </c>
       <c r="O14" s="22">
         <f t="shared" si="16"/>
-        <v>400</v>
+        <v>2729</v>
       </c>
       <c r="P14" s="22">
         <f t="shared" si="16"/>
-        <v>400</v>
+        <v>2889</v>
       </c>
       <c r="Q14" s="32">
         <f t="shared" si="16"/>
-        <v>26442</v>
+        <v>2153687</v>
       </c>
       <c r="R14" s="22">
         <f t="shared" si="16"/>
-        <v>26168</v>
+        <v>2591505</v>
       </c>
       <c r="S14" s="22">
         <f t="shared" si="16"/>
-        <v>19253</v>
+        <v>1751249</v>
       </c>
       <c r="T14" s="33">
         <f t="shared" si="16"/>
-        <v>29950</v>
+        <v>1585420</v>
       </c>
       <c r="U14" s="22">
         <f t="shared" si="16"/>
-        <v>19600</v>
+        <v>1333236</v>
       </c>
       <c r="V14" s="22">
         <f t="shared" si="16"/>
-        <v>19650</v>
+        <v>1373562</v>
       </c>
       <c r="W14" s="28">
         <f t="shared" si="16"/>
-        <v>29750</v>
+        <v>1836366</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:24">
       <c r="B15" s="34"/>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
@@ -2899,8 +2899,8 @@
       <c r="R15" s="35"/>
       <c r="S15" s="35"/>
     </row>
-    <row r="16" spans="2:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:24" ht="19" thickBot="1"/>
+    <row r="17" spans="1:16">
       <c r="B17" s="55" t="s">
         <v>32</v>
       </c>
@@ -2908,44 +2908,44 @@
       <c r="D17" s="57"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16">
       <c r="B18" s="15">
         <f>Q14</f>
-        <v>26442</v>
+        <v>2153687</v>
       </c>
       <c r="C18" s="35">
         <f>S14</f>
-        <v>19253</v>
+        <v>1751249</v>
       </c>
       <c r="D18" s="38">
         <f>M14</f>
-        <v>394</v>
+        <v>3395</v>
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16">
       <c r="B19" s="15">
         <f>S14</f>
-        <v>19253</v>
+        <v>1751249</v>
       </c>
       <c r="C19" s="35">
         <f>R14</f>
-        <v>26168</v>
+        <v>2591505</v>
       </c>
       <c r="D19" s="38">
         <f>N14</f>
-        <v>392</v>
+        <v>3897</v>
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="19" thickBot="1">
       <c r="B20" s="21">
         <f>M14</f>
-        <v>394</v>
+        <v>3395</v>
       </c>
       <c r="C20" s="33">
         <f>N14</f>
-        <v>392</v>
+        <v>3897</v>
       </c>
       <c r="D20" s="39">
         <f>COUNTIF(K6:K13,1)</f>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="K20" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16">
       <c r="A23" s="38"/>
       <c r="B23" s="40" t="s">
         <v>23</v>
@@ -2961,26 +2961,26 @@
       <c r="C23" s="38"/>
       <c r="D23" s="1">
         <f t="array" ref="D23:F25">MINVERSE(B18:D20)</f>
-        <v>1.4210406423544717E-4</v>
+        <v>1.4301420555387242E-6</v>
       </c>
       <c r="E23" s="1">
-        <v>1.0821142822527317E-6</v>
+        <v>-2.0107523967681976E-7</v>
       </c>
       <c r="F23" s="38">
-        <v>-7.0516487634261571E-3</v>
+        <v>-5.0896775869167517E-4</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14">
         <f>T14</f>
-        <v>29950</v>
+        <v>1585420</v>
       </c>
       <c r="J23" s="14">
         <f>D23*$H$23+E23*$H$24+F23*$H$25</f>
-        <v>1.4565666584133332</v>
+        <v>0.61032205597685829</v>
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16">
       <c r="A24" s="38"/>
       <c r="B24" s="40" t="s">
         <v>24</v>
@@ -2989,57 +2989,57 @@
         <v>2</v>
       </c>
       <c r="D24" s="1">
-        <v>1.0821142822527306E-6</v>
+        <v>-2.010752396768197E-7</v>
       </c>
       <c r="E24" s="1">
-        <v>1.4368640115760913E-4</v>
+        <v>1.4708998704781477E-6</v>
       </c>
       <c r="F24" s="38">
-        <v>-7.0939277851237957E-3</v>
+        <v>-6.3118079456881727E-4</v>
       </c>
       <c r="G24" s="42" t="s">
         <v>0</v>
       </c>
       <c r="H24" s="14">
         <f>U14</f>
-        <v>19600</v>
+        <v>1333236</v>
       </c>
       <c r="I24" s="43" t="s">
         <v>1</v>
       </c>
       <c r="J24" s="14">
         <f t="shared" ref="J24:J25" si="17">D24*$H$23+E24*$H$24+F24*$H$25</f>
-        <v>1.1091671393089975E-2</v>
+        <v>-8.0224435149922169E-2</v>
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16">
       <c r="A25" s="38"/>
       <c r="B25" s="40" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="38"/>
       <c r="D25" s="1">
-        <v>-7.0516487634261563E-3</v>
+        <v>-5.0896775869167527E-4</v>
       </c>
       <c r="E25" s="1">
-        <v>-7.0939277851237948E-3</v>
+        <v>-6.3118079456881727E-4</v>
       </c>
       <c r="F25" s="38">
-        <v>0.81989616306980417</v>
+        <v>0.64845713714911479</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14">
         <f>O14</f>
-        <v>400</v>
+        <v>2729</v>
       </c>
       <c r="J25" s="14">
         <f t="shared" si="17"/>
-        <v>-22.279399825118048</v>
+        <v>121.19890546722695</v>
       </c>
       <c r="K25" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16">
       <c r="A27" s="38"/>
       <c r="B27" s="40" t="s">
         <v>7</v>
@@ -3047,26 +3047,26 @@
       <c r="C27" s="38"/>
       <c r="D27" s="1">
         <f t="array" ref="D27:F29">MINVERSE(B18:D20)</f>
-        <v>1.4210406423544717E-4</v>
+        <v>1.4301420555387242E-6</v>
       </c>
       <c r="E27" s="1">
-        <v>1.0821142822527317E-6</v>
+        <v>-2.0107523967681976E-7</v>
       </c>
       <c r="F27" s="38">
-        <v>-7.0516487634261571E-3</v>
+        <v>-5.0896775869167517E-4</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14">
         <f>V14</f>
-        <v>19650</v>
+        <v>1373562</v>
       </c>
       <c r="J27" s="14">
         <f>D27*$H$27+E27*$H$28+F27*$H$29</f>
-        <v>3.8782567530928347E-3</v>
+        <v>0.12473319364526869</v>
       </c>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16">
       <c r="A28" s="38"/>
       <c r="B28" s="40" t="s">
         <v>8</v>
@@ -3075,57 +3075,57 @@
         <v>2</v>
       </c>
       <c r="D28" s="1">
-        <v>1.0821142822527306E-6</v>
+        <v>-2.010752396768197E-7</v>
       </c>
       <c r="E28" s="1">
-        <v>1.4368640115760913E-4</v>
+        <v>1.4708998704781477E-6</v>
       </c>
       <c r="F28" s="38">
-        <v>-7.0939277851237957E-3</v>
+        <v>-6.3118079456881727E-4</v>
       </c>
       <c r="G28" s="42" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="14">
         <f>W14</f>
-        <v>29750</v>
+        <v>1836366</v>
       </c>
       <c r="I28" s="43" t="s">
         <v>1</v>
       </c>
       <c r="J28" s="14">
         <f t="shared" ref="J28:J29" si="18">D28*$H$27+E28*$H$28+F28*$H$29</f>
-        <v>1.4583628660356198</v>
+        <v>0.60143988768018941</v>
       </c>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16">
       <c r="A29" s="38"/>
       <c r="B29" s="40" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="38"/>
       <c r="D29" s="1">
-        <v>-7.0516487634261563E-3</v>
+        <v>-5.0896775869167527E-4</v>
       </c>
       <c r="E29" s="1">
-        <v>-7.0939277851237948E-3</v>
+        <v>-6.3118079456881727E-4</v>
       </c>
       <c r="F29" s="38">
-        <v>0.81989616306980417</v>
+        <v>0.64845713714911479</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14">
         <f>P14</f>
-        <v>400</v>
+        <v>2889</v>
       </c>
       <c r="J29" s="14">
         <f t="shared" si="18"/>
-        <v>-21.650784580835193</v>
+        <v>15.214945660576859</v>
       </c>
       <c r="K29" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16">
       <c r="M31" s="49" t="s">
         <v>34</v>
       </c>
@@ -3135,7 +3135,7 @@
       <c r="O31" s="50"/>
       <c r="P31" s="50"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16">
       <c r="M32" s="52" t="s">
         <v>36</v>
       </c>
@@ -3145,7 +3145,7 @@
       <c r="O32" s="51"/>
       <c r="P32" s="50"/>
     </row>
-    <row r="33" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="13:16">
       <c r="M33" s="52" t="s">
         <v>38</v>
       </c>
